--- a/StudentFiles/ExcelList.xlsx
+++ b/StudentFiles/ExcelList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -45,24 +45,9 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Dishant Vyas</t>
-  </si>
-  <si>
-    <t>dishantvyas@gmail.com</t>
-  </si>
-  <si>
     <t>sdjfhbhjb</t>
   </si>
   <si>
-    <t>Jagdish Meghwal</t>
-  </si>
-  <si>
-    <t>jagsa77@gmail.com</t>
-  </si>
-  <si>
-    <t>sdbnjfbjsdfb</t>
-  </si>
-  <si>
     <t>FathersName</t>
   </si>
   <si>
@@ -78,25 +63,22 @@
     <t>ParentsLoginPassword</t>
   </si>
   <si>
-    <t>Mr. Ramesh Vyas</t>
-  </si>
-  <si>
-    <t>Mrs. Riya Vyas</t>
-  </si>
-  <si>
-    <t>Mr. Raj Meghwal</t>
-  </si>
-  <si>
-    <t>Mrs. Lata Meghwal</t>
-  </si>
-  <si>
     <t>RollNo</t>
   </si>
   <si>
-    <t>16EGICS024</t>
-  </si>
-  <si>
-    <t>16EGICS040</t>
+    <t>16EGICS039</t>
+  </si>
+  <si>
+    <t>Himanshu Panchal</t>
+  </si>
+  <si>
+    <t>Mr. Rahul Panchal</t>
+  </si>
+  <si>
+    <t>Mrs. Jaya Panchal</t>
+  </si>
+  <si>
+    <t>panchalhimanshu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -525,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,16 +525,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -561,13 +543,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -578,81 +560,48 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>7410258963</v>
+      </c>
+      <c r="G2">
+        <v>9874563210</v>
+      </c>
+      <c r="H2">
+        <v>8520369147</v>
+      </c>
+      <c r="I2">
+        <v>111111</v>
+      </c>
+      <c r="J2">
+        <v>222222</v>
+      </c>
+      <c r="K2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>8541002211</v>
-      </c>
-      <c r="G2">
-        <v>8520369741</v>
-      </c>
-      <c r="H2">
-        <v>8523690147</v>
-      </c>
-      <c r="I2">
-        <v>210210</v>
-      </c>
-      <c r="J2">
-        <v>120120</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>7410258963</v>
-      </c>
-      <c r="G3">
-        <v>1234567890</v>
-      </c>
-      <c r="H3">
-        <v>2013654789</v>
-      </c>
-      <c r="I3">
-        <v>310310</v>
-      </c>
-      <c r="J3">
-        <v>123123</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
